--- a/final_data_pipeline/output/311513_elec_options.xlsx
+++ b/final_data_pipeline/output/311513_elec_options.xlsx
@@ -1847,7 +1847,7 @@
         <v>102</v>
       </c>
       <c r="AD12">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="AE12">
         <v>8000</v>
@@ -1942,7 +1942,7 @@
         <v>102</v>
       </c>
       <c r="AD13">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="AE13">
         <v>8000</v>
@@ -2040,7 +2040,7 @@
         <v>102</v>
       </c>
       <c r="AD14">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="AE14">
         <v>8000</v>
@@ -2135,7 +2135,7 @@
         <v>102</v>
       </c>
       <c r="AD15">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="AE15">
         <v>8000</v>
@@ -2230,7 +2230,7 @@
         <v>102</v>
       </c>
       <c r="AD16">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="AE16">
         <v>8000</v>
@@ -2325,7 +2325,7 @@
         <v>102</v>
       </c>
       <c r="AD17">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AE17">
         <v>8000</v>
@@ -2420,7 +2420,7 @@
         <v>102</v>
       </c>
       <c r="AD18">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AE18">
         <v>8000</v>
@@ -2515,7 +2515,7 @@
         <v>102</v>
       </c>
       <c r="AD19">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AE19">
         <v>8000</v>
@@ -2610,7 +2610,7 @@
         <v>102</v>
       </c>
       <c r="AD20">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AE20">
         <v>8000</v>
@@ -2708,7 +2708,7 @@
         <v>102</v>
       </c>
       <c r="AD21">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AE21">
         <v>8000</v>
@@ -2803,7 +2803,7 @@
         <v>102</v>
       </c>
       <c r="AD22">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE22">
         <v>8000</v>
@@ -2898,7 +2898,7 @@
         <v>102</v>
       </c>
       <c r="AD23">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE23">
         <v>8000</v>
@@ -2993,7 +2993,7 @@
         <v>102</v>
       </c>
       <c r="AD24">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE24">
         <v>8000</v>
@@ -3088,7 +3088,7 @@
         <v>102</v>
       </c>
       <c r="AD25">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE25">
         <v>8000</v>
@@ -3183,7 +3183,7 @@
         <v>102</v>
       </c>
       <c r="AD26">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE26">
         <v>8000</v>
@@ -3278,7 +3278,7 @@
         <v>102</v>
       </c>
       <c r="AD27">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE27">
         <v>8000</v>
@@ -3376,7 +3376,7 @@
         <v>102</v>
       </c>
       <c r="AD28">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE28">
         <v>8000</v>
@@ -3474,7 +3474,7 @@
         <v>102</v>
       </c>
       <c r="AD29">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE29">
         <v>8000</v>
@@ -3572,7 +3572,7 @@
         <v>102</v>
       </c>
       <c r="AD30">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE30">
         <v>8000</v>
@@ -3670,7 +3670,7 @@
         <v>102</v>
       </c>
       <c r="AD31">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE31">
         <v>8000</v>
@@ -3768,7 +3768,7 @@
         <v>102</v>
       </c>
       <c r="AD32">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE32">
         <v>8000</v>
@@ -3866,7 +3866,7 @@
         <v>102</v>
       </c>
       <c r="AD33">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE33">
         <v>8000</v>
@@ -3961,7 +3961,7 @@
         <v>102</v>
       </c>
       <c r="AD34">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE34">
         <v>8000</v>
@@ -4056,7 +4056,7 @@
         <v>102</v>
       </c>
       <c r="AD35">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE35">
         <v>8000</v>
@@ -4151,7 +4151,7 @@
         <v>102</v>
       </c>
       <c r="AD36">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE36">
         <v>8000</v>
@@ -4246,7 +4246,7 @@
         <v>102</v>
       </c>
       <c r="AD37">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE37">
         <v>8000</v>
@@ -4341,7 +4341,7 @@
         <v>102</v>
       </c>
       <c r="AD38">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE38">
         <v>8000</v>
@@ -4436,7 +4436,7 @@
         <v>102</v>
       </c>
       <c r="AD39">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE39">
         <v>8000</v>
@@ -4531,7 +4531,7 @@
         <v>102</v>
       </c>
       <c r="AD40">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE40">
         <v>8000</v>
@@ -4626,7 +4626,7 @@
         <v>102</v>
       </c>
       <c r="AD41">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE41">
         <v>8000</v>
@@ -4721,7 +4721,7 @@
         <v>102</v>
       </c>
       <c r="AD42">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE42">
         <v>8000</v>
@@ -4816,7 +4816,7 @@
         <v>102</v>
       </c>
       <c r="AD43">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE43">
         <v>8000</v>
@@ -4911,7 +4911,7 @@
         <v>102</v>
       </c>
       <c r="AD44">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE44">
         <v>8000</v>
@@ -5006,7 +5006,7 @@
         <v>102</v>
       </c>
       <c r="AD45">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE45">
         <v>8000</v>
@@ -5101,7 +5101,7 @@
         <v>102</v>
       </c>
       <c r="AD46">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE46">
         <v>8000</v>
@@ -5196,7 +5196,7 @@
         <v>102</v>
       </c>
       <c r="AD47">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE47">
         <v>8000</v>
@@ -5291,7 +5291,7 @@
         <v>102</v>
       </c>
       <c r="AD48">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE48">
         <v>8000</v>
@@ -5386,7 +5386,7 @@
         <v>102</v>
       </c>
       <c r="AD49">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE49">
         <v>8000</v>
@@ -5484,7 +5484,7 @@
         <v>102</v>
       </c>
       <c r="AD50">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE50">
         <v>8000</v>
@@ -5579,7 +5579,7 @@
         <v>102</v>
       </c>
       <c r="AD51">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE51">
         <v>8000</v>
@@ -5677,7 +5677,7 @@
         <v>102</v>
       </c>
       <c r="AD52">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE52">
         <v>8000</v>
@@ -5772,7 +5772,7 @@
         <v>102</v>
       </c>
       <c r="AD53">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE53">
         <v>8000</v>
@@ -5867,7 +5867,7 @@
         <v>102</v>
       </c>
       <c r="AD54">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE54">
         <v>8000</v>
@@ -5962,7 +5962,7 @@
         <v>102</v>
       </c>
       <c r="AD55">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE55">
         <v>8000</v>
@@ -6057,7 +6057,7 @@
         <v>102</v>
       </c>
       <c r="AD56">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE56">
         <v>8000</v>
@@ -6152,7 +6152,7 @@
         <v>102</v>
       </c>
       <c r="AD57">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE57">
         <v>8000</v>
@@ -6247,7 +6247,7 @@
         <v>102</v>
       </c>
       <c r="AD58">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE58">
         <v>8000</v>
@@ -6342,7 +6342,7 @@
         <v>102</v>
       </c>
       <c r="AD59">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE59">
         <v>8000</v>
@@ -6437,7 +6437,7 @@
         <v>102</v>
       </c>
       <c r="AD60">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE60">
         <v>8000</v>
@@ -6532,7 +6532,7 @@
         <v>102</v>
       </c>
       <c r="AD61">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE61">
         <v>8000</v>
@@ -6627,7 +6627,7 @@
         <v>102</v>
       </c>
       <c r="AD62">
-        <v>10</v>
+        <v>12.66820987654322</v>
       </c>
       <c r="AE62">
         <v>8000</v>
@@ -6722,7 +6722,7 @@
         <v>102</v>
       </c>
       <c r="AD63">
-        <v>10</v>
+        <v>12.66820987654322</v>
       </c>
       <c r="AE63">
         <v>8000</v>
@@ -6817,7 +6817,7 @@
         <v>102</v>
       </c>
       <c r="AD64">
-        <v>10</v>
+        <v>12.66820987654322</v>
       </c>
       <c r="AE64">
         <v>8000</v>
@@ -6912,7 +6912,7 @@
         <v>102</v>
       </c>
       <c r="AD65">
-        <v>10</v>
+        <v>12.66820987654322</v>
       </c>
       <c r="AE65">
         <v>8000</v>
@@ -7010,7 +7010,7 @@
         <v>102</v>
       </c>
       <c r="AD66">
-        <v>10</v>
+        <v>12.66820987654322</v>
       </c>
       <c r="AE66">
         <v>8000</v>
@@ -7108,7 +7108,7 @@
         <v>102</v>
       </c>
       <c r="AD67">
-        <v>10</v>
+        <v>12.66820987654322</v>
       </c>
       <c r="AE67">
         <v>8000</v>
@@ -7203,7 +7203,7 @@
         <v>102</v>
       </c>
       <c r="AD68">
-        <v>10</v>
+        <v>12.66820987654322</v>
       </c>
       <c r="AE68">
         <v>8000</v>
@@ -7298,7 +7298,7 @@
         <v>102</v>
       </c>
       <c r="AD69">
-        <v>10</v>
+        <v>12.66820987654322</v>
       </c>
       <c r="AE69">
         <v>8000</v>
@@ -7393,7 +7393,7 @@
         <v>102</v>
       </c>
       <c r="AD70">
-        <v>10</v>
+        <v>12.66820987654322</v>
       </c>
       <c r="AE70">
         <v>8000</v>
@@ -7488,7 +7488,7 @@
         <v>102</v>
       </c>
       <c r="AD71">
-        <v>10</v>
+        <v>12.66820987654322</v>
       </c>
       <c r="AE71">
         <v>8000</v>
@@ -8061,7 +8061,7 @@
         <v>102</v>
       </c>
       <c r="AD77">
-        <v>10</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="AE77">
         <v>8000</v>
@@ -8156,7 +8156,7 @@
         <v>102</v>
       </c>
       <c r="AD78">
-        <v>10</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="AE78">
         <v>8000</v>
@@ -8254,7 +8254,7 @@
         <v>102</v>
       </c>
       <c r="AD79">
-        <v>10</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="AE79">
         <v>8000</v>
@@ -8349,7 +8349,7 @@
         <v>102</v>
       </c>
       <c r="AD80">
-        <v>10</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="AE80">
         <v>8000</v>
@@ -8444,7 +8444,7 @@
         <v>102</v>
       </c>
       <c r="AD81">
-        <v>10</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="AE81">
         <v>8000</v>
@@ -11612,7 +11612,7 @@
         <v>102</v>
       </c>
       <c r="AD114">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE114">
         <v>8000</v>
@@ -11707,7 +11707,7 @@
         <v>102</v>
       </c>
       <c r="AD115">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE115">
         <v>8000</v>
@@ -11802,7 +11802,7 @@
         <v>102</v>
       </c>
       <c r="AD116">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE116">
         <v>8000</v>
@@ -11897,7 +11897,7 @@
         <v>102</v>
       </c>
       <c r="AD117">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE117">
         <v>8000</v>
@@ -11992,7 +11992,7 @@
         <v>102</v>
       </c>
       <c r="AD118">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE118">
         <v>8000</v>
@@ -12087,7 +12087,7 @@
         <v>102</v>
       </c>
       <c r="AD119">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="AE119">
         <v>8000</v>
@@ -12182,7 +12182,7 @@
         <v>102</v>
       </c>
       <c r="AD120">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="AE120">
         <v>8000</v>
@@ -12277,7 +12277,7 @@
         <v>102</v>
       </c>
       <c r="AD121">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="AE121">
         <v>8000</v>
@@ -12372,7 +12372,7 @@
         <v>102</v>
       </c>
       <c r="AD122">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="AE122">
         <v>8000</v>
@@ -12467,7 +12467,7 @@
         <v>102</v>
       </c>
       <c r="AD123">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="AE123">
         <v>8000</v>
@@ -12562,7 +12562,7 @@
         <v>102</v>
       </c>
       <c r="AD124">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="AE124">
         <v>8000</v>
@@ -12657,7 +12657,7 @@
         <v>102</v>
       </c>
       <c r="AD125">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="AE125">
         <v>8000</v>
@@ -12755,7 +12755,7 @@
         <v>102</v>
       </c>
       <c r="AD126">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="AE126">
         <v>8000</v>
@@ -12853,7 +12853,7 @@
         <v>102</v>
       </c>
       <c r="AD127">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="AE127">
         <v>8000</v>
@@ -12948,7 +12948,7 @@
         <v>102</v>
       </c>
       <c r="AD128">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="AE128">
         <v>8000</v>
@@ -13043,7 +13043,7 @@
         <v>102</v>
       </c>
       <c r="AD129">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE129">
         <v>8000</v>
@@ -13138,7 +13138,7 @@
         <v>102</v>
       </c>
       <c r="AD130">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE130">
         <v>8000</v>
@@ -13236,7 +13236,7 @@
         <v>102</v>
       </c>
       <c r="AD131">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE131">
         <v>8000</v>
@@ -13331,7 +13331,7 @@
         <v>102</v>
       </c>
       <c r="AD132">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE132">
         <v>8000</v>
@@ -13426,7 +13426,7 @@
         <v>102</v>
       </c>
       <c r="AD133">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE133">
         <v>8000</v>
@@ -13521,7 +13521,7 @@
         <v>102</v>
       </c>
       <c r="AD134">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE134">
         <v>8000</v>
@@ -13616,7 +13616,7 @@
         <v>102</v>
       </c>
       <c r="AD135">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE135">
         <v>8000</v>
@@ -13711,7 +13711,7 @@
         <v>102</v>
       </c>
       <c r="AD136">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE136">
         <v>8000</v>
@@ -13806,7 +13806,7 @@
         <v>102</v>
       </c>
       <c r="AD137">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE137">
         <v>8000</v>
@@ -13904,7 +13904,7 @@
         <v>102</v>
       </c>
       <c r="AD138">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE138">
         <v>8000</v>
@@ -14002,7 +14002,7 @@
         <v>102</v>
       </c>
       <c r="AD139">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE139">
         <v>8000</v>
@@ -14097,7 +14097,7 @@
         <v>102</v>
       </c>
       <c r="AD140">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE140">
         <v>8000</v>
@@ -14195,7 +14195,7 @@
         <v>102</v>
       </c>
       <c r="AD141">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE141">
         <v>8000</v>
@@ -14293,7 +14293,7 @@
         <v>102</v>
       </c>
       <c r="AD142">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE142">
         <v>8000</v>
@@ -14388,7 +14388,7 @@
         <v>102</v>
       </c>
       <c r="AD143">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE143">
         <v>8000</v>
@@ -14483,7 +14483,7 @@
         <v>102</v>
       </c>
       <c r="AD144">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE144">
         <v>8000</v>
@@ -14578,7 +14578,7 @@
         <v>102</v>
       </c>
       <c r="AD145">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE145">
         <v>8000</v>
@@ -14673,7 +14673,7 @@
         <v>102</v>
       </c>
       <c r="AD146">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE146">
         <v>8000</v>
@@ -14771,7 +14771,7 @@
         <v>102</v>
       </c>
       <c r="AD147">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE147">
         <v>8000</v>
@@ -14869,7 +14869,7 @@
         <v>102</v>
       </c>
       <c r="AD148">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE148">
         <v>8000</v>
@@ -14964,7 +14964,7 @@
         <v>102</v>
       </c>
       <c r="AD149">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE149">
         <v>8000</v>
@@ -15059,7 +15059,7 @@
         <v>102</v>
       </c>
       <c r="AD150">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE150">
         <v>8000</v>
@@ -15154,7 +15154,7 @@
         <v>102</v>
       </c>
       <c r="AD151">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE151">
         <v>8000</v>
@@ -15249,7 +15249,7 @@
         <v>102</v>
       </c>
       <c r="AD152">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE152">
         <v>8000</v>
@@ -15344,7 +15344,7 @@
         <v>102</v>
       </c>
       <c r="AD153">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE153">
         <v>8000</v>
@@ -15439,7 +15439,7 @@
         <v>102</v>
       </c>
       <c r="AD154">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE154">
         <v>8000</v>
@@ -15534,7 +15534,7 @@
         <v>102</v>
       </c>
       <c r="AD155">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE155">
         <v>8000</v>
@@ -15629,7 +15629,7 @@
         <v>102</v>
       </c>
       <c r="AD156">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE156">
         <v>8000</v>
@@ -15724,7 +15724,7 @@
         <v>102</v>
       </c>
       <c r="AD157">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE157">
         <v>8000</v>
@@ -15819,7 +15819,7 @@
         <v>102</v>
       </c>
       <c r="AD158">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE158">
         <v>8000</v>
@@ -15914,7 +15914,7 @@
         <v>102</v>
       </c>
       <c r="AD159">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE159">
         <v>8000</v>
@@ -16009,7 +16009,7 @@
         <v>102</v>
       </c>
       <c r="AD160">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE160">
         <v>8000</v>
@@ -16104,7 +16104,7 @@
         <v>102</v>
       </c>
       <c r="AD161">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE161">
         <v>8000</v>
@@ -16199,7 +16199,7 @@
         <v>102</v>
       </c>
       <c r="AD162">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE162">
         <v>8000</v>
@@ -16294,7 +16294,7 @@
         <v>102</v>
       </c>
       <c r="AD163">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AE163">
         <v>8000</v>
@@ -16389,7 +16389,7 @@
         <v>102</v>
       </c>
       <c r="AD164">
-        <v>10</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="AE164">
         <v>8000</v>
@@ -16487,7 +16487,7 @@
         <v>102</v>
       </c>
       <c r="AD165">
-        <v>10</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="AE165">
         <v>8000</v>
@@ -16582,7 +16582,7 @@
         <v>102</v>
       </c>
       <c r="AD166">
-        <v>10</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="AE166">
         <v>8000</v>
@@ -16677,7 +16677,7 @@
         <v>102</v>
       </c>
       <c r="AD167">
-        <v>10</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="AE167">
         <v>8000</v>
@@ -16772,7 +16772,7 @@
         <v>102</v>
       </c>
       <c r="AD168">
-        <v>10</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="AE168">
         <v>8000</v>
@@ -16870,7 +16870,7 @@
         <v>102</v>
       </c>
       <c r="AD169">
-        <v>10</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="AE169">
         <v>8000</v>
@@ -16965,7 +16965,7 @@
         <v>102</v>
       </c>
       <c r="AD170">
-        <v>10</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="AE170">
         <v>8000</v>
@@ -17060,7 +17060,7 @@
         <v>102</v>
       </c>
       <c r="AD171">
-        <v>10</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="AE171">
         <v>8000</v>
@@ -17155,7 +17155,7 @@
         <v>102</v>
       </c>
       <c r="AD172">
-        <v>10</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="AE172">
         <v>8000</v>
@@ -17250,7 +17250,7 @@
         <v>102</v>
       </c>
       <c r="AD173">
-        <v>10</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="AE173">
         <v>8000</v>
